--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p3_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p3_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Participant</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>FeltMotion</t>
+  </si>
+  <si>
+    <t>FeltDirection</t>
   </si>
 </sst>
 </file>
@@ -392,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>3</v>
       </c>
@@ -443,8 +449,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>3</v>
       </c>
@@ -466,8 +475,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -489,8 +501,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -512,8 +527,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -535,8 +553,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3</v>
       </c>
@@ -558,8 +579,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>3</v>
       </c>
@@ -581,8 +605,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>3</v>
       </c>
@@ -604,8 +631,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>3</v>
       </c>
@@ -627,8 +657,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>3</v>
       </c>
@@ -650,8 +683,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>3</v>
       </c>
@@ -673,8 +709,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>3</v>
       </c>
@@ -696,8 +735,11 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>3</v>
       </c>
@@ -719,8 +761,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>3</v>
       </c>
@@ -742,8 +787,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>3</v>
       </c>
@@ -763,10 +811,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>3</v>
       </c>
@@ -788,8 +839,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>3</v>
       </c>
@@ -811,8 +865,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>3</v>
       </c>
@@ -834,8 +891,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>3</v>
       </c>
@@ -857,8 +917,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>3</v>
       </c>
@@ -880,8 +943,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>3</v>
       </c>
@@ -903,8 +969,11 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>3</v>
       </c>
@@ -926,8 +995,11 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>3</v>
       </c>
@@ -949,8 +1021,11 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>3</v>
       </c>
@@ -972,8 +1047,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>3</v>
       </c>
@@ -995,8 +1073,11 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1018,8 +1099,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1041,8 +1125,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1064,8 +1151,11 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1087,8 +1177,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1110,8 +1203,11 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1133,8 +1229,11 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1156,8 +1255,11 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1179,8 +1281,11 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1202,8 +1307,11 @@
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1225,8 +1333,11 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1248,8 +1359,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1271,8 +1385,11 @@
       <c r="G38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1294,8 +1411,11 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1317,8 +1437,11 @@
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1340,8 +1463,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1363,8 +1489,11 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1386,8 +1515,11 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1409,8 +1541,11 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1432,8 +1567,11 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1455,8 +1593,11 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1478,8 +1619,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1501,8 +1645,11 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1524,8 +1671,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1547,8 +1697,11 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1570,8 +1723,11 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1591,10 +1747,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1616,8 +1775,11 @@
       <c r="G53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1639,8 +1801,11 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1662,8 +1827,11 @@
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1685,8 +1853,11 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1708,8 +1879,11 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1729,10 +1903,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1754,8 +1931,11 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1777,8 +1957,11 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1800,8 +1983,11 @@
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1823,8 +2009,11 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1846,8 +2035,11 @@
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1869,8 +2061,11 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1892,8 +2087,11 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1913,10 +2111,13 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1938,8 +2139,11 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1961,8 +2165,11 @@
       <c r="G68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1984,8 +2191,11 @@
       <c r="G69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2007,8 +2217,11 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2030,8 +2243,11 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2053,8 +2269,11 @@
       <c r="G72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2076,8 +2295,11 @@
       <c r="G73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2099,8 +2321,11 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2122,8 +2347,11 @@
       <c r="G75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2145,8 +2373,11 @@
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>3</v>
       </c>
@@ -2168,8 +2399,11 @@
       <c r="G77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2191,8 +2425,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>3</v>
       </c>
@@ -2214,8 +2451,11 @@
       <c r="G79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2237,8 +2477,11 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>3</v>
       </c>
@@ -2260,8 +2503,11 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>3</v>
       </c>
@@ -2283,8 +2529,11 @@
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>3</v>
       </c>
@@ -2306,8 +2555,11 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>3</v>
       </c>
@@ -2329,8 +2581,11 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2352,8 +2607,11 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>3</v>
       </c>
@@ -2373,10 +2631,13 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>3</v>
       </c>
@@ -2398,8 +2659,11 @@
       <c r="G87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2419,10 +2683,13 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>3</v>
       </c>
@@ -2442,10 +2709,13 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2467,8 +2737,11 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>3</v>
       </c>
@@ -2490,8 +2763,11 @@
       <c r="G91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>3</v>
       </c>
@@ -2513,8 +2789,11 @@
       <c r="G92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>3</v>
       </c>
@@ -2536,8 +2815,11 @@
       <c r="G93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>3</v>
       </c>
@@ -2559,8 +2841,11 @@
       <c r="G94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>3</v>
       </c>
@@ -2580,10 +2865,13 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>3</v>
       </c>
@@ -2605,8 +2893,11 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>3</v>
       </c>
@@ -2628,8 +2919,11 @@
       <c r="G97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>3</v>
       </c>
@@ -2649,10 +2943,13 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>3</v>
       </c>
@@ -2674,8 +2971,11 @@
       <c r="G99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2697,8 +2997,11 @@
       <c r="G100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>3</v>
       </c>
@@ -2720,8 +3023,11 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>3</v>
       </c>
@@ -2743,8 +3049,11 @@
       <c r="G102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>3</v>
       </c>
@@ -2766,8 +3075,11 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>3</v>
       </c>
@@ -2789,8 +3101,11 @@
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>3</v>
       </c>
@@ -2812,8 +3127,11 @@
       <c r="G105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>3</v>
       </c>
@@ -2835,8 +3153,11 @@
       <c r="G106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>3</v>
       </c>
@@ -2858,8 +3179,11 @@
       <c r="G107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>3</v>
       </c>
@@ -2881,8 +3205,11 @@
       <c r="G108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>3</v>
       </c>
@@ -2904,8 +3231,11 @@
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>3</v>
       </c>
@@ -2925,10 +3255,13 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>3</v>
       </c>
@@ -2950,8 +3283,11 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>3</v>
       </c>
@@ -2971,10 +3307,13 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>3</v>
       </c>
@@ -2996,8 +3335,11 @@
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3019,8 +3361,11 @@
       <c r="G114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3042,8 +3387,11 @@
       <c r="G115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3065,8 +3413,11 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3088,8 +3439,11 @@
       <c r="G117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>3</v>
       </c>
@@ -3109,10 +3463,13 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3134,8 +3491,11 @@
       <c r="G119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3157,8 +3517,11 @@
       <c r="G120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3180,8 +3543,11 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3203,8 +3569,11 @@
       <c r="G122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3226,8 +3595,11 @@
       <c r="G123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3249,8 +3621,11 @@
       <c r="G124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>3</v>
       </c>
@@ -3272,8 +3647,11 @@
       <c r="G125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3295,8 +3673,11 @@
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>3</v>
       </c>
@@ -3318,8 +3699,11 @@
       <c r="G127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>3</v>
       </c>
@@ -3341,8 +3725,11 @@
       <c r="G128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3362,10 +3749,13 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>3</v>
       </c>
@@ -3385,10 +3775,13 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>3</v>
       </c>
@@ -3410,8 +3803,11 @@
       <c r="G131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>3</v>
       </c>
@@ -3433,8 +3829,11 @@
       <c r="G132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>3</v>
       </c>
@@ -3456,8 +3855,11 @@
       <c r="G133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>3</v>
       </c>
@@ -3479,8 +3881,11 @@
       <c r="G134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>3</v>
       </c>
@@ -3502,8 +3907,11 @@
       <c r="G135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>3</v>
       </c>
@@ -3525,8 +3933,11 @@
       <c r="G136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>3</v>
       </c>
@@ -3548,8 +3959,11 @@
       <c r="G137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>3</v>
       </c>
@@ -3571,8 +3985,11 @@
       <c r="G138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3594,8 +4011,11 @@
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>3</v>
       </c>
@@ -3617,8 +4037,11 @@
       <c r="G140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>3</v>
       </c>
@@ -3640,8 +4063,11 @@
       <c r="G141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>3</v>
       </c>
@@ -3661,10 +4087,13 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>3</v>
       </c>
@@ -3686,8 +4115,11 @@
       <c r="G143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>3</v>
       </c>
@@ -3709,8 +4141,11 @@
       <c r="G144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>3</v>
       </c>
@@ -3732,8 +4167,11 @@
       <c r="G145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>3</v>
       </c>
@@ -3755,8 +4193,11 @@
       <c r="G146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>3</v>
       </c>
@@ -3778,8 +4219,11 @@
       <c r="G147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>3</v>
       </c>
@@ -3801,8 +4245,11 @@
       <c r="G148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>3</v>
       </c>
@@ -3822,10 +4269,13 @@
         <v>0</v>
       </c>
       <c r="G149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>3</v>
       </c>
@@ -3847,8 +4297,11 @@
       <c r="G150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>3</v>
       </c>
@@ -3870,8 +4323,11 @@
       <c r="G151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>3</v>
       </c>
@@ -3893,8 +4349,11 @@
       <c r="G152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>3</v>
       </c>
@@ -3916,8 +4375,11 @@
       <c r="G153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>3</v>
       </c>
@@ -3939,8 +4401,11 @@
       <c r="G154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>3</v>
       </c>
@@ -3962,8 +4427,11 @@
       <c r="G155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>3</v>
       </c>
@@ -3985,8 +4453,11 @@
       <c r="G156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>3</v>
       </c>
@@ -4008,8 +4479,11 @@
       <c r="G157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>3</v>
       </c>
@@ -4029,10 +4503,13 @@
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>3</v>
       </c>
@@ -4054,8 +4531,11 @@
       <c r="G159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>3</v>
       </c>
@@ -4077,8 +4557,11 @@
       <c r="G160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>3</v>
       </c>
@@ -4100,8 +4583,11 @@
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>3</v>
       </c>
@@ -4121,10 +4607,13 @@
         <v>-1</v>
       </c>
       <c r="G162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>3</v>
       </c>
@@ -4146,8 +4635,11 @@
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>3</v>
       </c>
@@ -4169,8 +4661,11 @@
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>3</v>
       </c>
@@ -4192,8 +4687,11 @@
       <c r="G165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>3</v>
       </c>
@@ -4215,8 +4713,11 @@
       <c r="G166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>3</v>
       </c>
@@ -4238,8 +4739,11 @@
       <c r="G167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>3</v>
       </c>
@@ -4261,8 +4765,11 @@
       <c r="G168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>3</v>
       </c>
@@ -4284,8 +4791,11 @@
       <c r="G169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>3</v>
       </c>
@@ -4307,8 +4817,11 @@
       <c r="G170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>3</v>
       </c>
@@ -4330,8 +4843,11 @@
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>3</v>
       </c>
@@ -4353,8 +4869,11 @@
       <c r="G172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>3</v>
       </c>
@@ -4376,8 +4895,11 @@
       <c r="G173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>3</v>
       </c>
@@ -4399,8 +4921,11 @@
       <c r="G174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>3</v>
       </c>
@@ -4422,8 +4947,11 @@
       <c r="G175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>3</v>
       </c>
@@ -4445,8 +4973,11 @@
       <c r="G176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>3</v>
       </c>
@@ -4468,8 +4999,11 @@
       <c r="G177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>3</v>
       </c>
@@ -4491,8 +5025,11 @@
       <c r="G178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>3</v>
       </c>
@@ -4514,8 +5051,11 @@
       <c r="G179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>3</v>
       </c>
@@ -4537,8 +5077,11 @@
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>3</v>
       </c>
@@ -4558,6 +5101,9 @@
         <v>1</v>
       </c>
       <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
         <v>0</v>
       </c>
     </row>
